--- a/_private/2019.xlsx
+++ b/_private/2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/git/udacity-private/private/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/git/udacity-private/_private/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -1955,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2051,36 +2051,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
-        <v>43542</v>
+        <v>43564</v>
       </c>
       <c r="B6" s="23">
         <v>43830</v>
       </c>
       <c r="C6">
         <f>B6-A6+1</f>
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6">
-        <v>9000</v>
+        <v>64000</v>
       </c>
       <c r="F6">
         <f>(D6/365)*E6*C6</f>
-        <v>498.82191780821927</v>
+        <v>3277.1506849315069</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
-        <v>43513</v>
+        <v>43542</v>
       </c>
       <c r="B7" s="23">
         <v>43830</v>
       </c>
       <c r="C7">
         <f>B7-A7+1</f>
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -2090,203 +2090,225 @@
       </c>
       <c r="F7">
         <f>(D7/365)*E7*C7</f>
-        <v>548.87671232876721</v>
+        <v>498.82191780821927</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
-        <v>43497</v>
+        <v>43513</v>
       </c>
       <c r="B8" s="23">
         <v>43830</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C15" si="0">B8-A8+1</f>
-        <v>334</v>
+        <f>B8-A8+1</f>
+        <v>318</v>
       </c>
       <c r="D8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F15" si="1">(D8/365)*E8*C8</f>
-        <v>640.54794520547944</v>
+        <f>(D8/365)*E8*C8</f>
+        <v>548.87671232876721</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="23">
-        <v>43470</v>
+        <v>43497</v>
       </c>
       <c r="B9" s="23">
         <v>43830</v>
       </c>
       <c r="C9">
+        <f t="shared" ref="C9:C16" si="0">B9-A9+1</f>
+        <v>334</v>
+      </c>
+      <c r="D9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F16" si="1">(D9/365)*E9*C9</f>
+        <v>640.54794520547944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="23">
+        <v>43470</v>
+      </c>
+      <c r="B10" s="23">
+        <v>43830</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>71000</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>4915.5342465753429</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="23">
         <v>43335</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B11" s="23">
         <v>43830</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>496</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>70000</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>6658.6301369863022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="23">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="23">
         <v>43210</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B12" s="23">
         <v>43830</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>621</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>21000</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>2501.0136986301372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="23">
         <v>43159</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B13" s="23">
         <v>43830</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>79000</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>10181.260273972603</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="23">
         <v>43060</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B14" s="23">
         <v>43830</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>771</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>72000</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>10646.136986301372</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="23">
         <v>42871</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B15" s="23">
         <v>43830</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>29000</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>5339.1780821917819</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="23">
         <v>42839</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B16" s="23">
         <v>43830</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>54000</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>10273.315068493152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <f>SUM(E6:E15)</f>
-        <v>424000</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F7:F16)</f>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <f>SUM(E6:E16)</f>
+        <v>488000</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F8:F17)</f>
         <v>51704.493150684932</v>
       </c>
     </row>
@@ -2792,7 +2814,7 @@
       </c>
       <c r="F2" s="27">
         <f ca="1">E2/((TODAY()-A2+1)/365)</f>
-        <v>1.3111778316286835E-7</v>
+        <v>8.3209362391820306E-8</v>
       </c>
       <c r="G2">
         <v>98767</v>

--- a/_private/2019.xlsx
+++ b/_private/2019.xlsx
@@ -608,8 +608,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -883,6 +907,10 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -909,6 +937,10 @@
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1955,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2061,14 +2093,14 @@
         <v>267</v>
       </c>
       <c r="D6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E6">
         <v>64000</v>
       </c>
       <c r="F6">
         <f>(D6/365)*E6*C6</f>
-        <v>3277.1506849315069</v>
+        <v>2808.9863013698628</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2083,14 +2115,14 @@
         <v>289</v>
       </c>
       <c r="D7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E7">
         <v>9000</v>
       </c>
       <c r="F7">
         <f>(D7/365)*E7*C7</f>
-        <v>498.82191780821927</v>
+        <v>427.56164383561645</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2105,14 +2137,14 @@
         <v>318</v>
       </c>
       <c r="D8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E8">
         <v>9000</v>
       </c>
       <c r="F8">
         <f>(D8/365)*E8*C8</f>
-        <v>548.87671232876721</v>
+        <v>470.46575342465758</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2127,14 +2159,14 @@
         <v>334</v>
       </c>
       <c r="D9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E9">
         <v>10000</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F16" si="1">(D9/365)*E9*C9</f>
-        <v>640.54794520547944</v>
+        <v>549.04109589041104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2149,14 +2181,14 @@
         <v>361</v>
       </c>
       <c r="D10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E10">
         <v>71000</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>4915.5342465753429</v>
+        <v>4213.3150684931506</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2171,14 +2203,14 @@
         <v>496</v>
       </c>
       <c r="D11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
         <v>70000</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>6658.6301369863022</v>
+        <v>5707.3972602739723</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2193,14 +2225,14 @@
         <v>621</v>
       </c>
       <c r="D12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E12">
         <v>21000</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2501.0136986301372</v>
+        <v>2143.7260273972602</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2215,14 +2247,14 @@
         <v>672</v>
       </c>
       <c r="D13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E13">
         <v>79000</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>10181.260273972603</v>
+        <v>8726.7945205479446</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2237,14 +2269,14 @@
         <v>771</v>
       </c>
       <c r="D14">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E14">
         <v>72000</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>10646.136986301372</v>
+        <v>9125.2602739726044</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2259,14 +2291,14 @@
         <v>960</v>
       </c>
       <c r="D15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E15">
         <v>29000</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5339.1780821917819</v>
+        <v>4576.4383561643835</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2281,35 +2313,80 @@
         <v>992</v>
       </c>
       <c r="D16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
         <v>54000</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>10273.315068493152</v>
+        <v>8805.698630136987</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="23">
+        <v>43570</v>
+      </c>
+      <c r="B17" s="23">
+        <v>43830</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17" si="2">B17-A17+1</f>
+        <v>261</v>
+      </c>
+      <c r="D17">
+        <v>0.06</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="3">(D17/365)*E17*C17</f>
+        <v>429.04109589041099</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E18" t="s">
+      <c r="A18" s="23">
+        <v>43600</v>
+      </c>
+      <c r="B18" s="23">
+        <v>43830</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="4">B18-A18+1</f>
+        <v>231</v>
+      </c>
+      <c r="D18">
+        <v>0.06</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="5">(D18/365)*E18*C18</f>
+        <v>379.72602739726028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E19">
-        <f>SUM(E6:E16)</f>
-        <v>488000</v>
-      </c>
-      <c r="F19">
-        <f>SUM(F8:F17)</f>
-        <v>51704.493150684932</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <f>SUM(E6:E18)</f>
+        <v>508000</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F6:F18)</f>
+        <v>48363.452054794521</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2891,7 @@
       </c>
       <c r="F2" s="27">
         <f ca="1">E2/((TODAY()-A2+1)/365)</f>
-        <v>8.3209362391820306E-8</v>
+        <v>4.973433154453627E-8</v>
       </c>
       <c r="G2">
         <v>98767</v>
